--- a/src/test/resources/static/file/sample-success.xlsx
+++ b/src/test/resources/static/file/sample-success.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java_WS\GagaMap\backend\src\test\resources\static\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24EDA8E-FD94-41C1-A529-D060AD394682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC57CCF-21E8-4A19-8E67-2DB87EB0D238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="3030" windowWidth="15990" windowHeight="11385" xr2:uid="{0F3B81DA-CE79-49FC-9A0F-C342C30F01C6}"/>
+    <workbookView xWindow="10320" yWindow="2025" windowWidth="15990" windowHeight="11385" xr2:uid="{0F3B81DA-CE79-49FC-9A0F-C342C30F01C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,20 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>010-1111-2222</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>인천광역시 부평구 부평북로 111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>101동 1004호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,9 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>101동 1005호</t>
-  </si>
-  <si>
     <t>010-1111-2224</t>
   </si>
   <si>
@@ -82,42 +71,67 @@
     <t>010-1111-2226</t>
   </si>
   <si>
-    <t>인천광역시 부평구 부평북로 115</t>
-  </si>
-  <si>
     <t>010-1111-2223</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주소최소길이는10임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주소최대길이는40임123456789012345678901234567890</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>101동 1006호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세부주소는 없거나 20자 이하이다..</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이름은 20자 이하로 작성해야 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인천광역시 부평구 부평북로 114</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터간의 공백이 있기 때문에 해당 데이터는 파싱되지 않는다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름, 전화번호는 필수. 주소는 아님</t>
+    <t>김길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김예찬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김하나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김석</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 중구 세종대로 110</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2층 205호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인천광역시 남동구 정각로 29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3층 101호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 수원시 영통구 도청로 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서울특별시 송파구 올림픽로 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구광역시 중구 공평로 88</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +532,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -531,99 +545,96 @@
   <sheetData>
     <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/static/file/sample-success.xlsx
+++ b/src/test/resources/static/file/sample-success.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java_WS\GagaMap\backend\src\test\resources\static\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AC57CCF-21E8-4A19-8E67-2DB87EB0D238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12871E46-D862-426D-9886-811BA252AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10320" yWindow="2025" windowWidth="15990" windowHeight="11385" xr2:uid="{0F3B81DA-CE79-49FC-9A0F-C342C30F01C6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>010-1111-2222</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>대구광역시 중구 공평로 88</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김정한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -529,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5454262-A095-4D4C-8F12-F1A27FC839A6}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -632,8 +636,19 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>

--- a/src/test/resources/static/file/sample-success.xlsx
+++ b/src/test/resources/static/file/sample-success.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java_WS\GagaMap\backend\src\test\resources\static\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12871E46-D862-426D-9886-811BA252AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE64E3E-7F63-468A-8851-5471A0EFBEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="2025" windowWidth="15990" windowHeight="11385" xr2:uid="{0F3B81DA-CE79-49FC-9A0F-C342C30F01C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F3B81DA-CE79-49FC-9A0F-C342C30F01C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>010-1111-2222</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,35 @@
   <si>
     <t>김정한</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자</t>
+  </si>
+  <si>
+    <t>57세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자</t>
+  </si>
+  <si>
+    <t>58세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자</t>
+  </si>
+  <si>
+    <t>59세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자</t>
+  </si>
+  <si>
+    <t>60세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자</t>
+  </si>
+  <si>
+    <t>61세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자</t>
+  </si>
+  <si>
+    <t>63세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자</t>
   </si>
 </sst>
 </file>
@@ -533,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5454262-A095-4D4C-8F12-F1A27FC839A6}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -545,9 +574,10 @@
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="48.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -560,8 +590,11 @@
       <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -574,8 +607,11 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -588,8 +624,11 @@
       <c r="D3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -602,8 +641,11 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -616,8 +658,11 @@
       <c r="D5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -627,16 +672,22 @@
       <c r="C6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>16</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -646,10 +697,16 @@
       <c r="D8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
